--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/high-value/oldschool-high-value-uncommon.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/high-value/oldschool-high-value-uncommon.xlsx
@@ -31,7 +31,8 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>{T}: Untap target attacking creature. Prevent all combat damage that would be dealt to and dealt by that creature this turn.</t>
+          <t xml:space="preserve">{T}: Add {W}.
+{T}: Return target legendary creature to its owner's hand.</t>
         </r>
       </text>
     </comment>
@@ -46,8 +47,7 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{T}: Add {W}.
-{T}: Return target legendary creature to its owner's hand.</t>
+          <t>{T}: Untap target attacking creature. Prevent all combat damage that would be dealt to and dealt by that creature this turn.</t>
         </r>
       </text>
     </comment>
@@ -278,6 +278,27 @@
     <t>Oldschool - High Value (Uncommon) - Land</t>
   </si>
   <si>
+    <t>Karakas</t>
+  </si>
+  <si>
+    <t>Land - Legendary</t>
+  </si>
+  <si>
+    <t>Legendary Land</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>43.26</t>
+  </si>
+  <si>
+    <t>Open Karakas</t>
+  </si>
+  <si>
     <t>Maze of Ith</t>
   </si>
   <si>
@@ -291,27 +312,6 @@
   </si>
   <si>
     <t>Open Maze of Ith</t>
-  </si>
-  <si>
-    <t>Karakas</t>
-  </si>
-  <si>
-    <t>Land - Legendary</t>
-  </si>
-  <si>
-    <t>Legendary Land</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>43.26</t>
-  </si>
-  <si>
-    <t>Open Karakas</t>
   </si>
   <si>
     <t>Pendelhaven</t>
@@ -375,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -407,39 +407,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,16 +442,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
